--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sara leah\Desktop\Excellenteam\course\python\MOBILEYE\project\tpl-mobileye\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rachel\rachel folder\excellenteam\mobileye\part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91CD7BB-6E6B-4460-8EA0-77925E0A59F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E25EDAB-B81A-46C8-B9E8-D028E8C42BCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>זיהה</t>
   </si>
@@ -71,16 +70,25 @@
   <si>
     <t>ציון:</t>
   </si>
+  <si>
+    <t>אחרי צבעים</t>
+  </si>
+  <si>
+    <t>טרשולד 1.8</t>
+  </si>
+  <si>
+    <t>שינוי טרשולד</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -421,16 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9650E8-BB77-4700-9B5E-BF8E9DCC93C1}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -470,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -490,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -507,7 +515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -524,7 +532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -544,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -564,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>16</v>
       </c>
@@ -581,7 +589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>17</v>
       </c>
@@ -598,7 +606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19</v>
       </c>
@@ -615,13 +623,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>SUM(D2:D10)</f>
         <v>634</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -638,7 +646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -664,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -684,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -701,7 +709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -718,7 +726,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
@@ -735,7 +743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -752,7 +760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -769,7 +777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -786,13 +794,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D23">
         <f>SUM(D14:D22)</f>
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -809,7 +817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -835,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -855,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7</v>
       </c>
@@ -872,7 +880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -889,7 +897,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10</v>
       </c>
@@ -906,7 +914,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -923,7 +931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>17</v>
       </c>
@@ -940,7 +948,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>19</v>
       </c>
@@ -957,18 +965,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D36">
         <f>SUM(D27:D35)</f>
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -985,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>7</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>17</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>19</v>
       </c>
@@ -1133,10 +1141,509 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D48">
         <f>SUM(D39:D47)</f>
         <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>33</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>38</v>
+      </c>
+      <c r="E53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>34</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>-589</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>37</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>43</v>
+      </c>
+      <c r="E55">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>39</v>
+      </c>
+      <c r="E56">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>122</v>
+      </c>
+      <c r="E58">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>50</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <f>SUM(D53:D61)</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>97</v>
+      </c>
+      <c r="E68">
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>89</v>
+      </c>
+      <c r="E69">
+        <v>93</v>
+      </c>
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>88</v>
+      </c>
+      <c r="E70">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>245</v>
+      </c>
+      <c r="E71">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>172</v>
+      </c>
+      <c r="E72">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>67</v>
+      </c>
+      <c r="E73">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>65</v>
+      </c>
+      <c r="E74">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>180</v>
+      </c>
+      <c r="E75">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <f>SUM(D67:D75)</f>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>33</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>102</v>
+      </c>
+      <c r="E78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>94</v>
+      </c>
+      <c r="E79">
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79">
+        <v>-589</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>101</v>
+      </c>
+      <c r="E80">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>42</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>75</v>
+      </c>
+      <c r="E81">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>43</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>98</v>
+      </c>
+      <c r="E82">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>44</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>264</v>
+      </c>
+      <c r="E83">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>50</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>39</v>
+      </c>
+      <c r="E84">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>52</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>177</v>
+      </c>
+      <c r="E85">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <f>SUM(D78:D86)</f>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>זיהה</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>שינוי טרשולד</t>
+  </si>
+  <si>
+    <t>עם שני קרנלים</t>
+  </si>
+  <si>
+    <t>טרשולד 0.25</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>42</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>43</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>44</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>50</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>52</v>
       </c>
@@ -1635,15 +1641,332 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D87">
         <f>SUM(D78:D86)</f>
         <v>950</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>65</v>
+      </c>
+      <c r="E91">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>84</v>
+      </c>
+      <c r="E92">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>86</v>
+      </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>84</v>
+      </c>
+      <c r="E94">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>187</v>
+      </c>
+      <c r="E95">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>146</v>
+      </c>
+      <c r="E96">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>76</v>
+      </c>
+      <c r="E97">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>58</v>
+      </c>
+      <c r="E98">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>169</v>
+      </c>
+      <c r="E99">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>108</v>
+      </c>
+      <c r="E100">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>36</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>70</v>
+      </c>
+      <c r="E101">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>37</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>78</v>
+      </c>
+      <c r="E102">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>42</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>81</v>
+      </c>
+      <c r="E103">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>43</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>108</v>
+      </c>
+      <c r="E104">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>44</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>260</v>
+      </c>
+      <c r="E105">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>50</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>29</v>
+      </c>
+      <c r="E106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>52</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>203</v>
+      </c>
+      <c r="E107">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <f>SUM(D91:D108)</f>
+        <v>1892</v>
       </c>
     </row>
   </sheetData>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -80,10 +80,10 @@
     <t>שינוי טרשולד</t>
   </si>
   <si>
-    <t>עם שני קרנלים</t>
+    <t>טרשולד 0.25</t>
   </si>
   <si>
-    <t>טרשולד 0.25</t>
+    <t>עם שני קרנלים/</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
